--- a/VersionRecords/Version 5.2.0.9_beta 20161220/版本Bug和特性计划及评审表v5.2.0.9_野帝组.xlsx
+++ b/VersionRecords/Version 5.2.0.9_beta 20161220/版本Bug和特性计划及评审表v5.2.0.9_野帝组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
   <si>
     <t>No</t>
   </si>
@@ -271,6 +271,21 @@
   </si>
   <si>
     <t>项目经理</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>把memcached 的配置从旧的app上复制过来</t>
+  </si>
+  <si>
+    <t>测试环境</t>
   </si>
   <si>
     <t>对应backlog序号</t>
@@ -302,10 +317,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -423,6 +438,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -434,29 +457,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -519,17 +519,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -540,11 +556,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -624,13 +639,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,13 +651,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,18 +693,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -714,13 +717,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,7 +735,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,7 +783,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,31 +795,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,6 +969,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -996,8 +1026,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1005,8 +1035,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1026,21 +1056,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1059,10 +1074,10 @@
     <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1071,125 +1086,125 @@
     <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
@@ -1199,16 +1214,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
@@ -5710,11 +5725,14 @@
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q2 Q3:Q1048576">
-      <formula1>"能,否"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M2 M3:M1048576">
+      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B2 B3:B1048576">
       <formula1>"重要,不重要"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q2 Q3:Q1048576">
+      <formula1>"能,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2 C3:C1048576">
       <formula1>"紧急,不紧急"</formula1>
@@ -5722,14 +5740,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O2 O3:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E2 E3:E1048576">
-      <formula1>"Fix Bugs,New Features"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G2 G3:G1048576 I1:I2 I3:I1048576 T1:T2 T3:T1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M2 M3:M1048576">
-      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E2 E3:E1048576">
+      <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6129,7 +6144,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
@@ -6223,15 +6238,31 @@
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:13">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="13"/>
+      <c r="A4" s="11">
+        <v>1</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>84</v>
+      </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -6425,14 +6456,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F5 F6:F16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6737,9 +6768,6 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
@@ -6748,6 +6776,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
       <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7052,9 +7083,6 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
@@ -7063,6 +7091,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
       <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7367,9 +7398,6 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
@@ -7378,6 +7406,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
       <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7407,28 +7438,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">

--- a/VersionRecords/Version 5.2.0.9_beta 20161220/版本Bug和特性计划及评审表v5.2.0.9_野帝组.xlsx
+++ b/VersionRecords/Version 5.2.0.9_beta 20161220/版本Bug和特性计划及评审表v5.2.0.9_野帝组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
   <si>
     <t>No</t>
   </si>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t>通过</t>
+  </si>
+  <si>
+    <t>PC签约单，付款方式空指针异常</t>
+  </si>
+  <si>
+    <t>mogoroom-partnerpc</t>
+  </si>
+  <si>
+    <t>张海涛</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -317,10 +326,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -408,6 +417,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -461,7 +499,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,51 +546,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,6 +636,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -699,6 +726,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -724,48 +775,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,6 +978,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -999,15 +1026,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1019,15 +1037,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1071,172 +1080,172 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="32" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1923,7 +1932,7 @@
   <dimension ref="A1:V165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2067,22 +2076,48 @@
       <c r="U2" s="77"/>
       <c r="V2" s="78"/>
     </row>
-    <row r="3" s="55" customFormat="1" ht="16.5" spans="1:22">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63"/>
+    <row r="3" s="55" customFormat="1" ht="33" spans="1:22">
+      <c r="A3" s="60">
+        <v>2</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="63">
+        <v>42725</v>
+      </c>
+      <c r="I3" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="63">
+        <v>42725</v>
+      </c>
       <c r="K3" s="62"/>
       <c r="L3" s="71"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="71"/>
+      <c r="M3" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="71" t="s">
+        <v>29</v>
+      </c>
       <c r="P3" s="63"/>
       <c r="Q3" s="71"/>
       <c r="R3" s="68"/>
@@ -2697,7 +2732,7 @@
       <c r="S29" s="68"/>
       <c r="T29" s="68"/>
       <c r="U29" s="77" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="1:21">
@@ -5725,8 +5760,14 @@
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M2 M3:M1048576">
-      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2 C3:C1048576">
+      <formula1>"紧急,不紧急"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 G1:G2 G3:G1048576 I1:I2 I4:I1048576 T1:T2 T3:T1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E2 E3:E1048576">
+      <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B2 B3:B1048576">
       <formula1>"重要,不重要"</formula1>
@@ -5734,17 +5775,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q2 Q3:Q1048576">
       <formula1>"能,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2 C3:C1048576">
-      <formula1>"紧急,不紧急"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M2 M3:M1048576">
+      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O2 O3:O1048576">
       <formula1>"通过,不通过"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G2 G3:G1048576 I1:I2 I3:I1048576 T1:T2 T3:T1048576">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E2 E3:E1048576">
-      <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5784,55 +5819,55 @@
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:18">
       <c r="A1" s="39" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E1" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="40" t="s">
-        <v>32</v>
-      </c>
       <c r="O1" s="40" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P1" s="40" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="40" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="R1" s="40" t="s">
         <v>20</v>
@@ -5928,7 +5963,7 @@
   <sheetData>
     <row r="1" ht="20.25" spans="1:11">
       <c r="A1" s="22" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -5943,34 +5978,34 @@
     </row>
     <row r="2" ht="17.25" spans="1:11">
       <c r="A2" s="24" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K2" s="25" t="s">
         <v>20</v>
@@ -5981,15 +6016,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="29" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G3" s="29"/>
       <c r="H3" s="30"/>
@@ -6002,11 +6037,11 @@
       <c r="B4" s="32"/>
       <c r="C4" s="27"/>
       <c r="D4" s="28" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="29" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="30"/>
@@ -6019,15 +6054,15 @@
         <v>2</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G5" s="29"/>
       <c r="H5" s="30"/>
@@ -6040,11 +6075,11 @@
       <c r="B6" s="32"/>
       <c r="C6" s="27"/>
       <c r="D6" s="28" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G6" s="29"/>
       <c r="H6" s="30"/>
@@ -6057,11 +6092,11 @@
       <c r="B7" s="32"/>
       <c r="C7" s="27"/>
       <c r="D7" s="28" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="30"/>
@@ -6074,11 +6109,11 @@
       <c r="B8" s="32"/>
       <c r="C8" s="27"/>
       <c r="D8" s="28" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="30"/>
@@ -6166,7 +6201,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -6198,40 +6233,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>20</v>
@@ -6245,23 +6280,23 @@
         <v>27</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -6497,7 +6532,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -6529,40 +6564,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>20</v>
@@ -6812,7 +6847,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -6844,40 +6879,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>20</v>
@@ -7127,7 +7162,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -7159,40 +7194,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>20</v>
@@ -7438,28 +7473,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">

--- a/VersionRecords/Version 5.2.0.9_beta 20161220/版本Bug和特性计划及评审表v5.2.0.9_野帝组.xlsx
+++ b/VersionRecords/Version 5.2.0.9_beta 20161220/版本Bug和特性计划及评审表v5.2.0.9_野帝组.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103">
   <si>
     <t>No</t>
   </si>
@@ -128,6 +128,27 @@
   </si>
   <si>
     <t>张海涛</t>
+  </si>
+  <si>
+    <t>Android 1.1.1公测版本</t>
+  </si>
+  <si>
+    <t>mogo-partner-android</t>
+  </si>
+  <si>
+    <t>何瑞君</t>
+  </si>
+  <si>
+    <t>IOS 1.1.1公测版本</t>
+  </si>
+  <si>
+    <t>mogo-partner-ios</t>
+  </si>
+  <si>
+    <t>H5执行环境</t>
+  </si>
+  <si>
+    <t>mogo-partner-h5-vue2</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -417,13 +438,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -452,36 +466,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -498,10 +482,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -516,13 +501,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,6 +529,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
@@ -560,6 +573,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,19 +657,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,25 +687,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,43 +699,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,6 +712,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,13 +741,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -786,7 +771,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,30 +813,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -955,19 +976,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -992,21 +1000,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1065,6 +1058,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1080,174 +1088,174 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="1">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1440,15 +1448,15 @@
     <xf numFmtId="14" fontId="12" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1464,9 +1472,6 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1488,13 +1493,10 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1504,6 +1506,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="56" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1932,7 +1937,7 @@
   <dimension ref="A1:V165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2072,9 +2077,9 @@
       <c r="Q2" s="71"/>
       <c r="R2" s="68"/>
       <c r="S2" s="68"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="78"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="77"/>
     </row>
     <row r="3" s="55" customFormat="1" ht="33" spans="1:22">
       <c r="A3" s="60">
@@ -2122,81 +2127,159 @@
       <c r="Q3" s="71"/>
       <c r="R3" s="68"/>
       <c r="S3" s="68"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="78"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="77"/>
     </row>
     <row r="4" s="55" customFormat="1" ht="16.5" spans="1:22">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="63"/>
+      <c r="A4" s="60">
+        <v>3</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="63">
+        <v>42725</v>
+      </c>
+      <c r="I4" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="63">
+        <v>42725</v>
+      </c>
       <c r="K4" s="62"/>
       <c r="L4" s="71"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="71"/>
+      <c r="M4" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="71" t="s">
+        <v>29</v>
+      </c>
       <c r="P4" s="63"/>
       <c r="Q4" s="71"/>
-      <c r="R4" s="80"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="78"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="77"/>
     </row>
     <row r="5" s="55" customFormat="1" ht="16.5" spans="1:22">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="63"/>
+      <c r="A5" s="60">
+        <v>4</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="63">
+        <v>42725</v>
+      </c>
+      <c r="I5" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="63">
+        <v>42725</v>
+      </c>
       <c r="K5" s="62"/>
       <c r="L5" s="71"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="71"/>
+      <c r="M5" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="71" t="s">
+        <v>29</v>
+      </c>
       <c r="P5" s="63"/>
       <c r="Q5" s="71"/>
       <c r="R5" s="68"/>
       <c r="S5" s="68"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="78"/>
-    </row>
-    <row r="6" s="55" customFormat="1" ht="16.5" spans="1:22">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="77"/>
+    </row>
+    <row r="6" s="55" customFormat="1" ht="33" spans="1:22">
+      <c r="A6" s="60">
+        <v>5</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="63">
+        <v>42725</v>
+      </c>
+      <c r="I6" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="63">
+        <v>42725</v>
+      </c>
       <c r="K6" s="62"/>
       <c r="L6" s="71"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="71"/>
+      <c r="M6" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="71" t="s">
+        <v>29</v>
+      </c>
       <c r="P6" s="63"/>
       <c r="Q6" s="71"/>
       <c r="R6" s="68"/>
       <c r="S6" s="68"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="78"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="78"/>
+      <c r="V6" s="77"/>
     </row>
     <row r="7" s="55" customFormat="1" ht="16.5" spans="1:22">
       <c r="A7" s="60"/>
@@ -2218,9 +2301,9 @@
       <c r="Q7" s="71"/>
       <c r="R7" s="68"/>
       <c r="S7" s="68"/>
-      <c r="T7" s="76"/>
-      <c r="U7" s="79"/>
-      <c r="V7" s="78"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="77"/>
     </row>
     <row r="8" s="55" customFormat="1" ht="16.5" spans="1:22">
       <c r="A8" s="60"/>
@@ -2242,9 +2325,9 @@
       <c r="Q8" s="71"/>
       <c r="R8" s="68"/>
       <c r="S8" s="68"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="79"/>
-      <c r="V8" s="78"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="77"/>
     </row>
     <row r="9" s="55" customFormat="1" ht="16.5" spans="1:22">
       <c r="A9" s="60"/>
@@ -2266,9 +2349,9 @@
       <c r="Q9" s="71"/>
       <c r="R9" s="68"/>
       <c r="S9" s="68"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="78"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="77"/>
     </row>
     <row r="10" s="55" customFormat="1" ht="16.5" spans="1:22">
       <c r="A10" s="60"/>
@@ -2291,8 +2374,8 @@
       <c r="R10" s="68"/>
       <c r="S10" s="68"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="79"/>
-      <c r="V10" s="78"/>
+      <c r="U10" s="78"/>
+      <c r="V10" s="77"/>
     </row>
     <row r="11" s="55" customFormat="1" ht="16.5" spans="1:22">
       <c r="A11" s="60"/>
@@ -2315,8 +2398,8 @@
       <c r="R11" s="68"/>
       <c r="S11" s="68"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="78"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="77"/>
     </row>
     <row r="12" s="55" customFormat="1" ht="16.5" spans="1:22">
       <c r="A12" s="60"/>
@@ -2329,18 +2412,18 @@
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
       <c r="J12" s="63"/>
-      <c r="K12" s="73"/>
+      <c r="K12" s="72"/>
       <c r="L12" s="71"/>
       <c r="M12" s="62"/>
       <c r="N12" s="62"/>
-      <c r="O12" s="74"/>
+      <c r="O12" s="73"/>
       <c r="P12" s="63"/>
-      <c r="Q12" s="74"/>
+      <c r="Q12" s="73"/>
       <c r="R12" s="68"/>
       <c r="S12" s="68"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="81"/>
-      <c r="V12" s="78"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="77"/>
     </row>
     <row r="13" ht="16.5" spans="1:21">
       <c r="A13" s="60"/>
@@ -2353,7 +2436,7 @@
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
       <c r="J13" s="63"/>
-      <c r="K13" s="75"/>
+      <c r="K13" s="74"/>
       <c r="L13" s="71"/>
       <c r="M13" s="62"/>
       <c r="N13" s="62"/>
@@ -2376,7 +2459,7 @@
       <c r="H14" s="63"/>
       <c r="I14" s="63"/>
       <c r="J14" s="63"/>
-      <c r="K14" s="75"/>
+      <c r="K14" s="74"/>
       <c r="L14" s="71"/>
       <c r="M14" s="62"/>
       <c r="N14" s="62"/>
@@ -2399,11 +2482,11 @@
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
       <c r="J15" s="63"/>
-      <c r="K15" s="75"/>
+      <c r="K15" s="74"/>
       <c r="L15" s="71"/>
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
-      <c r="O15" s="76"/>
+      <c r="O15" s="75"/>
       <c r="P15" s="63"/>
       <c r="Q15" s="71"/>
       <c r="R15" s="68"/>
@@ -2415,9 +2498,9 @@
       <c r="A16" s="60"/>
       <c r="B16" s="60"/>
       <c r="C16" s="60"/>
-      <c r="D16" s="65"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="62"/>
-      <c r="F16" s="66"/>
+      <c r="F16" s="65"/>
       <c r="G16" s="62"/>
       <c r="H16" s="63"/>
       <c r="I16" s="62"/>
@@ -2432,15 +2515,15 @@
       <c r="R16" s="68"/>
       <c r="S16" s="68"/>
       <c r="T16" s="68"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="78"/>
     </row>
     <row r="17" ht="16.5" spans="1:21">
       <c r="A17" s="60"/>
       <c r="B17" s="60"/>
       <c r="C17" s="60"/>
-      <c r="D17" s="65"/>
+      <c r="D17" s="64"/>
       <c r="E17" s="62"/>
-      <c r="F17" s="66"/>
+      <c r="F17" s="65"/>
       <c r="G17" s="62"/>
       <c r="H17" s="63"/>
       <c r="I17" s="62"/>
@@ -2455,15 +2538,15 @@
       <c r="R17" s="68"/>
       <c r="S17" s="68"/>
       <c r="T17" s="68"/>
-      <c r="U17" s="79"/>
+      <c r="U17" s="78"/>
     </row>
     <row r="18" ht="16.5" spans="1:21">
       <c r="A18" s="60"/>
       <c r="B18" s="60"/>
       <c r="C18" s="60"/>
-      <c r="D18" s="65"/>
+      <c r="D18" s="64"/>
       <c r="E18" s="62"/>
-      <c r="F18" s="66"/>
+      <c r="F18" s="65"/>
       <c r="G18" s="62"/>
       <c r="H18" s="63"/>
       <c r="I18" s="62"/>
@@ -2478,15 +2561,15 @@
       <c r="R18" s="68"/>
       <c r="S18" s="68"/>
       <c r="T18" s="68"/>
-      <c r="U18" s="79"/>
+      <c r="U18" s="78"/>
     </row>
     <row r="19" ht="16.5" spans="1:21">
       <c r="A19" s="60"/>
       <c r="B19" s="60"/>
       <c r="C19" s="60"/>
-      <c r="D19" s="65"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="62"/>
-      <c r="F19" s="66"/>
+      <c r="F19" s="65"/>
       <c r="G19" s="62"/>
       <c r="H19" s="63"/>
       <c r="I19" s="62"/>
@@ -2498,18 +2581,18 @@
       <c r="O19" s="71"/>
       <c r="P19" s="63"/>
       <c r="Q19" s="71"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="82"/>
-      <c r="T19" s="82"/>
-      <c r="U19" s="83"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="81"/>
     </row>
     <row r="20" ht="16.5" spans="1:21">
       <c r="A20" s="60"/>
       <c r="B20" s="60"/>
       <c r="C20" s="60"/>
-      <c r="D20" s="65"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="62"/>
-      <c r="F20" s="66"/>
+      <c r="F20" s="65"/>
       <c r="G20" s="62"/>
       <c r="H20" s="63"/>
       <c r="I20" s="62"/>
@@ -2521,18 +2604,18 @@
       <c r="O20" s="71"/>
       <c r="P20" s="63"/>
       <c r="Q20" s="71"/>
-      <c r="R20" s="84"/>
-      <c r="S20" s="84"/>
-      <c r="T20" s="84"/>
-      <c r="U20" s="83"/>
+      <c r="R20" s="82"/>
+      <c r="S20" s="82"/>
+      <c r="T20" s="82"/>
+      <c r="U20" s="81"/>
     </row>
     <row r="21" ht="16.5" spans="1:21">
       <c r="A21" s="60"/>
       <c r="B21" s="60"/>
       <c r="C21" s="60"/>
-      <c r="D21" s="65"/>
+      <c r="D21" s="64"/>
       <c r="E21" s="62"/>
-      <c r="F21" s="66"/>
+      <c r="F21" s="65"/>
       <c r="G21" s="62"/>
       <c r="H21" s="63"/>
       <c r="I21" s="62"/>
@@ -2544,18 +2627,18 @@
       <c r="O21" s="71"/>
       <c r="P21" s="63"/>
       <c r="Q21" s="71"/>
-      <c r="R21" s="84"/>
-      <c r="S21" s="84"/>
-      <c r="T21" s="85"/>
-      <c r="U21" s="83"/>
+      <c r="R21" s="82"/>
+      <c r="S21" s="82"/>
+      <c r="T21" s="83"/>
+      <c r="U21" s="81"/>
     </row>
     <row r="22" ht="16.5" spans="1:21">
       <c r="A22" s="60"/>
       <c r="B22" s="60"/>
       <c r="C22" s="60"/>
-      <c r="D22" s="65"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="62"/>
-      <c r="F22" s="66"/>
+      <c r="F22" s="65"/>
       <c r="G22" s="62"/>
       <c r="H22" s="63"/>
       <c r="I22" s="62"/>
@@ -2567,18 +2650,18 @@
       <c r="O22" s="71"/>
       <c r="P22" s="63"/>
       <c r="Q22" s="71"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="83"/>
+      <c r="R22" s="82"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="82"/>
+      <c r="U22" s="81"/>
     </row>
     <row r="23" ht="16.5" spans="1:21">
       <c r="A23" s="60"/>
       <c r="B23" s="60"/>
       <c r="C23" s="60"/>
-      <c r="D23" s="65"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="62"/>
-      <c r="F23" s="66"/>
+      <c r="F23" s="65"/>
       <c r="G23" s="62"/>
       <c r="H23" s="63"/>
       <c r="I23" s="62"/>
@@ -2590,18 +2673,18 @@
       <c r="O23" s="71"/>
       <c r="P23" s="63"/>
       <c r="Q23" s="71"/>
-      <c r="R23" s="84"/>
-      <c r="S23" s="84"/>
-      <c r="T23" s="84"/>
-      <c r="U23" s="83"/>
+      <c r="R23" s="82"/>
+      <c r="S23" s="82"/>
+      <c r="T23" s="82"/>
+      <c r="U23" s="81"/>
     </row>
     <row r="24" ht="16.5" spans="1:21">
       <c r="A24" s="60"/>
       <c r="B24" s="60"/>
       <c r="C24" s="60"/>
-      <c r="D24" s="65"/>
+      <c r="D24" s="64"/>
       <c r="E24" s="62"/>
-      <c r="F24" s="66"/>
+      <c r="F24" s="65"/>
       <c r="G24" s="62"/>
       <c r="H24" s="63"/>
       <c r="I24" s="62"/>
@@ -2613,18 +2696,18 @@
       <c r="O24" s="71"/>
       <c r="P24" s="63"/>
       <c r="Q24" s="71"/>
-      <c r="R24" s="80"/>
-      <c r="S24" s="80"/>
-      <c r="T24" s="80"/>
+      <c r="R24" s="84"/>
+      <c r="S24" s="84"/>
+      <c r="T24" s="84"/>
       <c r="U24" s="71"/>
     </row>
     <row r="25" ht="16.5" spans="1:21">
       <c r="A25" s="60"/>
       <c r="B25" s="60"/>
       <c r="C25" s="60"/>
-      <c r="D25" s="65"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="62"/>
-      <c r="F25" s="66"/>
+      <c r="F25" s="65"/>
       <c r="G25" s="62"/>
       <c r="H25" s="63"/>
       <c r="I25" s="62"/>
@@ -2639,15 +2722,15 @@
       <c r="R25" s="68"/>
       <c r="S25" s="68"/>
       <c r="T25" s="68"/>
-      <c r="U25" s="79"/>
+      <c r="U25" s="78"/>
     </row>
     <row r="26" ht="16.5" spans="1:21">
       <c r="A26" s="60"/>
       <c r="B26" s="60"/>
       <c r="C26" s="60"/>
-      <c r="D26" s="65"/>
+      <c r="D26" s="64"/>
       <c r="E26" s="62"/>
-      <c r="F26" s="66"/>
+      <c r="F26" s="65"/>
       <c r="G26" s="62"/>
       <c r="H26" s="63"/>
       <c r="I26" s="62"/>
@@ -2662,15 +2745,15 @@
       <c r="R26" s="68"/>
       <c r="S26" s="68"/>
       <c r="T26" s="68"/>
-      <c r="U26" s="79"/>
+      <c r="U26" s="78"/>
     </row>
     <row r="27" ht="16.5" spans="1:21">
       <c r="A27" s="60"/>
       <c r="B27" s="60"/>
       <c r="C27" s="60"/>
-      <c r="D27" s="65"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="62"/>
-      <c r="F27" s="66"/>
+      <c r="F27" s="65"/>
       <c r="G27" s="62"/>
       <c r="H27" s="63"/>
       <c r="I27" s="62"/>
@@ -2685,30 +2768,30 @@
       <c r="R27" s="68"/>
       <c r="S27" s="68"/>
       <c r="T27" s="68"/>
-      <c r="U27" s="79"/>
+      <c r="U27" s="78"/>
     </row>
     <row r="28" ht="16.5" spans="1:21">
       <c r="A28" s="60"/>
       <c r="B28" s="60"/>
       <c r="C28" s="60"/>
-      <c r="D28" s="65"/>
+      <c r="D28" s="64"/>
       <c r="E28" s="62"/>
-      <c r="F28" s="66"/>
+      <c r="F28" s="65"/>
       <c r="G28" s="62"/>
       <c r="H28" s="63"/>
       <c r="I28" s="62"/>
       <c r="J28" s="63"/>
-      <c r="K28" s="66"/>
+      <c r="K28" s="65"/>
       <c r="L28" s="71"/>
       <c r="M28" s="62"/>
       <c r="N28" s="71"/>
       <c r="O28" s="71"/>
       <c r="P28" s="63"/>
       <c r="Q28" s="71"/>
-      <c r="R28" s="84"/>
-      <c r="S28" s="84"/>
-      <c r="T28" s="84"/>
-      <c r="U28" s="83"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="82"/>
+      <c r="T28" s="82"/>
+      <c r="U28" s="81"/>
     </row>
     <row r="29" ht="49.5" spans="1:21">
       <c r="A29" s="60"/>
@@ -2731,8 +2814,8 @@
       <c r="R29" s="68"/>
       <c r="S29" s="68"/>
       <c r="T29" s="68"/>
-      <c r="U29" s="77" t="s">
-        <v>33</v>
+      <c r="U29" s="76" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="1:21">
@@ -2756,7 +2839,7 @@
       <c r="R30" s="68"/>
       <c r="S30" s="68"/>
       <c r="T30" s="68"/>
-      <c r="U30" s="79"/>
+      <c r="U30" s="78"/>
     </row>
     <row r="31" ht="16.5" spans="1:21">
       <c r="A31" s="60"/>
@@ -2779,7 +2862,7 @@
       <c r="R31" s="68"/>
       <c r="S31" s="68"/>
       <c r="T31" s="68"/>
-      <c r="U31" s="79"/>
+      <c r="U31" s="78"/>
     </row>
     <row r="32" ht="16.5" spans="1:21">
       <c r="A32" s="60"/>
@@ -2802,7 +2885,7 @@
       <c r="R32" s="68"/>
       <c r="S32" s="68"/>
       <c r="T32" s="68"/>
-      <c r="U32" s="79"/>
+      <c r="U32" s="78"/>
     </row>
     <row r="33" ht="16.5" spans="1:21">
       <c r="A33" s="60"/>
@@ -2825,7 +2908,7 @@
       <c r="R33" s="68"/>
       <c r="S33" s="68"/>
       <c r="T33" s="68"/>
-      <c r="U33" s="79"/>
+      <c r="U33" s="78"/>
     </row>
     <row r="34" ht="16.5" spans="1:21">
       <c r="A34" s="60"/>
@@ -2848,7 +2931,7 @@
       <c r="R34" s="68"/>
       <c r="S34" s="68"/>
       <c r="T34" s="68"/>
-      <c r="U34" s="79"/>
+      <c r="U34" s="78"/>
     </row>
     <row r="35" ht="16.5" spans="1:21">
       <c r="A35" s="60"/>
@@ -2871,7 +2954,7 @@
       <c r="R35" s="68"/>
       <c r="S35" s="68"/>
       <c r="T35" s="68"/>
-      <c r="U35" s="79"/>
+      <c r="U35" s="78"/>
     </row>
     <row r="36" ht="16.5" spans="1:21">
       <c r="A36" s="60"/>
@@ -2894,7 +2977,7 @@
       <c r="R36" s="68"/>
       <c r="S36" s="68"/>
       <c r="T36" s="68"/>
-      <c r="U36" s="79"/>
+      <c r="U36" s="78"/>
     </row>
     <row r="37" ht="16.5" spans="1:21">
       <c r="A37" s="60"/>
@@ -2917,7 +3000,7 @@
       <c r="R37" s="68"/>
       <c r="S37" s="68"/>
       <c r="T37" s="68"/>
-      <c r="U37" s="79"/>
+      <c r="U37" s="78"/>
     </row>
     <row r="38" ht="16.5" spans="1:21">
       <c r="A38" s="60"/>
@@ -2940,7 +3023,7 @@
       <c r="R38" s="68"/>
       <c r="S38" s="68"/>
       <c r="T38" s="68"/>
-      <c r="U38" s="79"/>
+      <c r="U38" s="78"/>
     </row>
     <row r="39" ht="16.5" spans="1:21">
       <c r="A39" s="60"/>
@@ -2963,13 +3046,13 @@
       <c r="R39" s="68"/>
       <c r="S39" s="68"/>
       <c r="T39" s="68"/>
-      <c r="U39" s="79"/>
+      <c r="U39" s="78"/>
     </row>
     <row r="40" ht="16.5" spans="1:21">
       <c r="A40" s="60"/>
       <c r="B40" s="60"/>
       <c r="C40" s="60"/>
-      <c r="D40" s="64"/>
+      <c r="D40" s="66"/>
       <c r="E40" s="62"/>
       <c r="F40" s="62"/>
       <c r="G40" s="62"/>
@@ -2983,16 +3066,16 @@
       <c r="O40" s="71"/>
       <c r="P40" s="63"/>
       <c r="Q40" s="71"/>
-      <c r="R40" s="80"/>
-      <c r="S40" s="80"/>
-      <c r="T40" s="80"/>
-      <c r="U40" s="79"/>
+      <c r="R40" s="84"/>
+      <c r="S40" s="84"/>
+      <c r="T40" s="84"/>
+      <c r="U40" s="78"/>
     </row>
     <row r="41" ht="16.5" spans="1:21">
       <c r="A41" s="60"/>
       <c r="B41" s="60"/>
       <c r="C41" s="60"/>
-      <c r="D41" s="64"/>
+      <c r="D41" s="66"/>
       <c r="E41" s="62"/>
       <c r="F41" s="62"/>
       <c r="G41" s="62"/>
@@ -3006,10 +3089,10 @@
       <c r="O41" s="71"/>
       <c r="P41" s="63"/>
       <c r="Q41" s="71"/>
-      <c r="R41" s="80"/>
-      <c r="S41" s="80"/>
-      <c r="T41" s="80"/>
-      <c r="U41" s="79"/>
+      <c r="R41" s="84"/>
+      <c r="S41" s="84"/>
+      <c r="T41" s="84"/>
+      <c r="U41" s="78"/>
     </row>
     <row r="42" ht="16.5" spans="1:21">
       <c r="A42" s="60"/>
@@ -3022,7 +3105,7 @@
       <c r="H42" s="63"/>
       <c r="I42" s="63"/>
       <c r="J42" s="63"/>
-      <c r="K42" s="75"/>
+      <c r="K42" s="74"/>
       <c r="L42" s="71"/>
       <c r="M42" s="71"/>
       <c r="N42" s="62"/>
@@ -3045,7 +3128,7 @@
       <c r="H43" s="63"/>
       <c r="I43" s="63"/>
       <c r="J43" s="63"/>
-      <c r="K43" s="75"/>
+      <c r="K43" s="74"/>
       <c r="L43" s="71"/>
       <c r="M43" s="71"/>
       <c r="N43" s="62"/>
@@ -3068,7 +3151,7 @@
       <c r="H44" s="63"/>
       <c r="I44" s="63"/>
       <c r="J44" s="63"/>
-      <c r="K44" s="75"/>
+      <c r="K44" s="74"/>
       <c r="L44" s="71"/>
       <c r="M44" s="71"/>
       <c r="N44" s="62"/>
@@ -3091,7 +3174,7 @@
       <c r="H45" s="63"/>
       <c r="I45" s="63"/>
       <c r="J45" s="63"/>
-      <c r="K45" s="75"/>
+      <c r="K45" s="74"/>
       <c r="L45" s="71"/>
       <c r="M45" s="71"/>
       <c r="N45" s="62"/>
@@ -3114,7 +3197,7 @@
       <c r="H46" s="63"/>
       <c r="I46" s="63"/>
       <c r="J46" s="63"/>
-      <c r="K46" s="75"/>
+      <c r="K46" s="74"/>
       <c r="L46" s="71"/>
       <c r="M46" s="71"/>
       <c r="N46" s="62"/>
@@ -3137,7 +3220,7 @@
       <c r="H47" s="63"/>
       <c r="I47" s="63"/>
       <c r="J47" s="63"/>
-      <c r="K47" s="75"/>
+      <c r="K47" s="74"/>
       <c r="L47" s="71"/>
       <c r="M47" s="71"/>
       <c r="N47" s="62"/>
@@ -3160,7 +3243,7 @@
       <c r="H48" s="63"/>
       <c r="I48" s="63"/>
       <c r="J48" s="63"/>
-      <c r="K48" s="75"/>
+      <c r="K48" s="74"/>
       <c r="L48" s="71"/>
       <c r="M48" s="71"/>
       <c r="N48" s="62"/>
@@ -3183,7 +3266,7 @@
       <c r="H49" s="70"/>
       <c r="I49" s="68"/>
       <c r="J49" s="70"/>
-      <c r="K49" s="75"/>
+      <c r="K49" s="74"/>
       <c r="L49" s="68"/>
       <c r="M49" s="68"/>
       <c r="N49" s="68"/>
@@ -3206,7 +3289,7 @@
       <c r="H50" s="70"/>
       <c r="I50" s="68"/>
       <c r="J50" s="70"/>
-      <c r="K50" s="75"/>
+      <c r="K50" s="74"/>
       <c r="L50" s="68"/>
       <c r="M50" s="68"/>
       <c r="N50" s="68"/>
@@ -3229,7 +3312,7 @@
       <c r="H51" s="70"/>
       <c r="I51" s="68"/>
       <c r="J51" s="70"/>
-      <c r="K51" s="75"/>
+      <c r="K51" s="74"/>
       <c r="L51" s="68"/>
       <c r="M51" s="68"/>
       <c r="N51" s="68"/>
@@ -3252,7 +3335,7 @@
       <c r="H52" s="70"/>
       <c r="I52" s="68"/>
       <c r="J52" s="70"/>
-      <c r="K52" s="75"/>
+      <c r="K52" s="74"/>
       <c r="L52" s="68"/>
       <c r="M52" s="68"/>
       <c r="N52" s="68"/>
@@ -3275,7 +3358,7 @@
       <c r="H53" s="70"/>
       <c r="I53" s="68"/>
       <c r="J53" s="70"/>
-      <c r="K53" s="75"/>
+      <c r="K53" s="74"/>
       <c r="L53" s="68"/>
       <c r="M53" s="68"/>
       <c r="N53" s="68"/>
@@ -3298,7 +3381,7 @@
       <c r="H54" s="70"/>
       <c r="I54" s="68"/>
       <c r="J54" s="70"/>
-      <c r="K54" s="75"/>
+      <c r="K54" s="74"/>
       <c r="L54" s="68"/>
       <c r="M54" s="68"/>
       <c r="N54" s="68"/>
@@ -3321,7 +3404,7 @@
       <c r="H55" s="70"/>
       <c r="I55" s="68"/>
       <c r="J55" s="70"/>
-      <c r="K55" s="75"/>
+      <c r="K55" s="74"/>
       <c r="L55" s="68"/>
       <c r="M55" s="68"/>
       <c r="N55" s="68"/>
@@ -3344,7 +3427,7 @@
       <c r="H56" s="70"/>
       <c r="I56" s="68"/>
       <c r="J56" s="70"/>
-      <c r="K56" s="75"/>
+      <c r="K56" s="74"/>
       <c r="L56" s="68"/>
       <c r="M56" s="68"/>
       <c r="N56" s="68"/>
@@ -3367,7 +3450,7 @@
       <c r="H57" s="70"/>
       <c r="I57" s="68"/>
       <c r="J57" s="70"/>
-      <c r="K57" s="75"/>
+      <c r="K57" s="74"/>
       <c r="L57" s="68"/>
       <c r="M57" s="68"/>
       <c r="N57" s="68"/>
@@ -3390,7 +3473,7 @@
       <c r="H58" s="70"/>
       <c r="I58" s="68"/>
       <c r="J58" s="70"/>
-      <c r="K58" s="75"/>
+      <c r="K58" s="74"/>
       <c r="L58" s="68"/>
       <c r="M58" s="68"/>
       <c r="N58" s="68"/>
@@ -3413,7 +3496,7 @@
       <c r="H59" s="70"/>
       <c r="I59" s="68"/>
       <c r="J59" s="70"/>
-      <c r="K59" s="75"/>
+      <c r="K59" s="74"/>
       <c r="L59" s="68"/>
       <c r="M59" s="68"/>
       <c r="N59" s="68"/>
@@ -3436,7 +3519,7 @@
       <c r="H60" s="70"/>
       <c r="I60" s="68"/>
       <c r="J60" s="70"/>
-      <c r="K60" s="75"/>
+      <c r="K60" s="74"/>
       <c r="L60" s="68"/>
       <c r="M60" s="68"/>
       <c r="N60" s="68"/>
@@ -3459,7 +3542,7 @@
       <c r="H61" s="70"/>
       <c r="I61" s="68"/>
       <c r="J61" s="70"/>
-      <c r="K61" s="75"/>
+      <c r="K61" s="74"/>
       <c r="L61" s="68"/>
       <c r="M61" s="68"/>
       <c r="N61" s="68"/>
@@ -3482,7 +3565,7 @@
       <c r="H62" s="70"/>
       <c r="I62" s="68"/>
       <c r="J62" s="70"/>
-      <c r="K62" s="75"/>
+      <c r="K62" s="74"/>
       <c r="L62" s="68"/>
       <c r="M62" s="68"/>
       <c r="N62" s="68"/>
@@ -3505,7 +3588,7 @@
       <c r="H63" s="70"/>
       <c r="I63" s="68"/>
       <c r="J63" s="70"/>
-      <c r="K63" s="75"/>
+      <c r="K63" s="74"/>
       <c r="L63" s="68"/>
       <c r="M63" s="68"/>
       <c r="N63" s="68"/>
@@ -3528,7 +3611,7 @@
       <c r="H64" s="70"/>
       <c r="I64" s="68"/>
       <c r="J64" s="70"/>
-      <c r="K64" s="75"/>
+      <c r="K64" s="74"/>
       <c r="L64" s="68"/>
       <c r="M64" s="68"/>
       <c r="N64" s="68"/>
@@ -3551,7 +3634,7 @@
       <c r="H65" s="70"/>
       <c r="I65" s="68"/>
       <c r="J65" s="70"/>
-      <c r="K65" s="75"/>
+      <c r="K65" s="74"/>
       <c r="L65" s="68"/>
       <c r="M65" s="68"/>
       <c r="N65" s="68"/>
@@ -3574,7 +3657,7 @@
       <c r="H66" s="70"/>
       <c r="I66" s="68"/>
       <c r="J66" s="70"/>
-      <c r="K66" s="75"/>
+      <c r="K66" s="74"/>
       <c r="L66" s="68"/>
       <c r="M66" s="68"/>
       <c r="N66" s="68"/>
@@ -3597,7 +3680,7 @@
       <c r="H67" s="70"/>
       <c r="I67" s="68"/>
       <c r="J67" s="70"/>
-      <c r="K67" s="75"/>
+      <c r="K67" s="74"/>
       <c r="L67" s="68"/>
       <c r="M67" s="68"/>
       <c r="N67" s="68"/>
@@ -3620,7 +3703,7 @@
       <c r="H68" s="70"/>
       <c r="I68" s="68"/>
       <c r="J68" s="70"/>
-      <c r="K68" s="75"/>
+      <c r="K68" s="74"/>
       <c r="L68" s="68"/>
       <c r="M68" s="68"/>
       <c r="N68" s="68"/>
@@ -3643,7 +3726,7 @@
       <c r="H69" s="70"/>
       <c r="I69" s="68"/>
       <c r="J69" s="70"/>
-      <c r="K69" s="75"/>
+      <c r="K69" s="74"/>
       <c r="L69" s="68"/>
       <c r="M69" s="68"/>
       <c r="N69" s="68"/>
@@ -3666,7 +3749,7 @@
       <c r="H70" s="70"/>
       <c r="I70" s="68"/>
       <c r="J70" s="70"/>
-      <c r="K70" s="75"/>
+      <c r="K70" s="74"/>
       <c r="L70" s="68"/>
       <c r="M70" s="68"/>
       <c r="N70" s="68"/>
@@ -3689,7 +3772,7 @@
       <c r="H71" s="70"/>
       <c r="I71" s="68"/>
       <c r="J71" s="70"/>
-      <c r="K71" s="75"/>
+      <c r="K71" s="74"/>
       <c r="L71" s="68"/>
       <c r="M71" s="68"/>
       <c r="N71" s="68"/>
@@ -3712,7 +3795,7 @@
       <c r="H72" s="70"/>
       <c r="I72" s="68"/>
       <c r="J72" s="70"/>
-      <c r="K72" s="75"/>
+      <c r="K72" s="74"/>
       <c r="L72" s="68"/>
       <c r="M72" s="68"/>
       <c r="N72" s="68"/>
@@ -3735,7 +3818,7 @@
       <c r="H73" s="70"/>
       <c r="I73" s="68"/>
       <c r="J73" s="70"/>
-      <c r="K73" s="75"/>
+      <c r="K73" s="74"/>
       <c r="L73" s="68"/>
       <c r="M73" s="68"/>
       <c r="N73" s="68"/>
@@ -3758,7 +3841,7 @@
       <c r="H74" s="70"/>
       <c r="I74" s="68"/>
       <c r="J74" s="70"/>
-      <c r="K74" s="75"/>
+      <c r="K74" s="74"/>
       <c r="L74" s="68"/>
       <c r="M74" s="68"/>
       <c r="N74" s="68"/>
@@ -3781,7 +3864,7 @@
       <c r="H75" s="70"/>
       <c r="I75" s="68"/>
       <c r="J75" s="70"/>
-      <c r="K75" s="75"/>
+      <c r="K75" s="74"/>
       <c r="L75" s="68"/>
       <c r="M75" s="68"/>
       <c r="N75" s="68"/>
@@ -3804,7 +3887,7 @@
       <c r="H76" s="70"/>
       <c r="I76" s="68"/>
       <c r="J76" s="70"/>
-      <c r="K76" s="75"/>
+      <c r="K76" s="74"/>
       <c r="L76" s="68"/>
       <c r="M76" s="68"/>
       <c r="N76" s="68"/>
@@ -3827,7 +3910,7 @@
       <c r="H77" s="70"/>
       <c r="I77" s="68"/>
       <c r="J77" s="70"/>
-      <c r="K77" s="75"/>
+      <c r="K77" s="74"/>
       <c r="L77" s="68"/>
       <c r="M77" s="68"/>
       <c r="N77" s="68"/>
@@ -3850,7 +3933,7 @@
       <c r="H78" s="70"/>
       <c r="I78" s="68"/>
       <c r="J78" s="70"/>
-      <c r="K78" s="75"/>
+      <c r="K78" s="74"/>
       <c r="L78" s="68"/>
       <c r="M78" s="68"/>
       <c r="N78" s="68"/>
@@ -3873,7 +3956,7 @@
       <c r="H79" s="70"/>
       <c r="I79" s="68"/>
       <c r="J79" s="70"/>
-      <c r="K79" s="75"/>
+      <c r="K79" s="74"/>
       <c r="L79" s="68"/>
       <c r="M79" s="68"/>
       <c r="N79" s="68"/>
@@ -3896,7 +3979,7 @@
       <c r="H80" s="70"/>
       <c r="I80" s="68"/>
       <c r="J80" s="70"/>
-      <c r="K80" s="75"/>
+      <c r="K80" s="74"/>
       <c r="L80" s="68"/>
       <c r="M80" s="68"/>
       <c r="N80" s="68"/>
@@ -3919,7 +4002,7 @@
       <c r="H81" s="70"/>
       <c r="I81" s="68"/>
       <c r="J81" s="70"/>
-      <c r="K81" s="75"/>
+      <c r="K81" s="74"/>
       <c r="L81" s="68"/>
       <c r="M81" s="68"/>
       <c r="N81" s="68"/>
@@ -3942,7 +4025,7 @@
       <c r="H82" s="70"/>
       <c r="I82" s="68"/>
       <c r="J82" s="70"/>
-      <c r="K82" s="75"/>
+      <c r="K82" s="74"/>
       <c r="L82" s="68"/>
       <c r="M82" s="68"/>
       <c r="N82" s="68"/>
@@ -3965,7 +4048,7 @@
       <c r="H83" s="70"/>
       <c r="I83" s="68"/>
       <c r="J83" s="70"/>
-      <c r="K83" s="75"/>
+      <c r="K83" s="74"/>
       <c r="L83" s="68"/>
       <c r="M83" s="68"/>
       <c r="N83" s="68"/>
@@ -3988,7 +4071,7 @@
       <c r="H84" s="70"/>
       <c r="I84" s="68"/>
       <c r="J84" s="70"/>
-      <c r="K84" s="75"/>
+      <c r="K84" s="74"/>
       <c r="L84" s="68"/>
       <c r="M84" s="68"/>
       <c r="N84" s="68"/>
@@ -4011,7 +4094,7 @@
       <c r="H85" s="70"/>
       <c r="I85" s="68"/>
       <c r="J85" s="70"/>
-      <c r="K85" s="75"/>
+      <c r="K85" s="74"/>
       <c r="L85" s="68"/>
       <c r="M85" s="68"/>
       <c r="N85" s="68"/>
@@ -4034,7 +4117,7 @@
       <c r="H86" s="70"/>
       <c r="I86" s="68"/>
       <c r="J86" s="70"/>
-      <c r="K86" s="75"/>
+      <c r="K86" s="74"/>
       <c r="L86" s="68"/>
       <c r="M86" s="68"/>
       <c r="N86" s="68"/>
@@ -4057,7 +4140,7 @@
       <c r="H87" s="70"/>
       <c r="I87" s="68"/>
       <c r="J87" s="70"/>
-      <c r="K87" s="75"/>
+      <c r="K87" s="74"/>
       <c r="L87" s="68"/>
       <c r="M87" s="68"/>
       <c r="N87" s="68"/>
@@ -4080,7 +4163,7 @@
       <c r="H88" s="70"/>
       <c r="I88" s="68"/>
       <c r="J88" s="70"/>
-      <c r="K88" s="75"/>
+      <c r="K88" s="74"/>
       <c r="L88" s="68"/>
       <c r="M88" s="68"/>
       <c r="N88" s="68"/>
@@ -4103,7 +4186,7 @@
       <c r="H89" s="70"/>
       <c r="I89" s="68"/>
       <c r="J89" s="70"/>
-      <c r="K89" s="75"/>
+      <c r="K89" s="74"/>
       <c r="L89" s="68"/>
       <c r="M89" s="68"/>
       <c r="N89" s="68"/>
@@ -4126,7 +4209,7 @@
       <c r="H90" s="70"/>
       <c r="I90" s="68"/>
       <c r="J90" s="70"/>
-      <c r="K90" s="75"/>
+      <c r="K90" s="74"/>
       <c r="L90" s="68"/>
       <c r="M90" s="68"/>
       <c r="N90" s="68"/>
@@ -4149,7 +4232,7 @@
       <c r="H91" s="70"/>
       <c r="I91" s="68"/>
       <c r="J91" s="70"/>
-      <c r="K91" s="75"/>
+      <c r="K91" s="74"/>
       <c r="L91" s="68"/>
       <c r="M91" s="68"/>
       <c r="N91" s="68"/>
@@ -4172,7 +4255,7 @@
       <c r="H92" s="70"/>
       <c r="I92" s="68"/>
       <c r="J92" s="70"/>
-      <c r="K92" s="75"/>
+      <c r="K92" s="74"/>
       <c r="L92" s="68"/>
       <c r="M92" s="68"/>
       <c r="N92" s="68"/>
@@ -4195,7 +4278,7 @@
       <c r="H93" s="70"/>
       <c r="I93" s="68"/>
       <c r="J93" s="70"/>
-      <c r="K93" s="75"/>
+      <c r="K93" s="74"/>
       <c r="L93" s="68"/>
       <c r="M93" s="68"/>
       <c r="N93" s="68"/>
@@ -4218,7 +4301,7 @@
       <c r="H94" s="70"/>
       <c r="I94" s="68"/>
       <c r="J94" s="70"/>
-      <c r="K94" s="75"/>
+      <c r="K94" s="74"/>
       <c r="L94" s="68"/>
       <c r="M94" s="68"/>
       <c r="N94" s="68"/>
@@ -4241,7 +4324,7 @@
       <c r="H95" s="70"/>
       <c r="I95" s="68"/>
       <c r="J95" s="70"/>
-      <c r="K95" s="75"/>
+      <c r="K95" s="74"/>
       <c r="L95" s="68"/>
       <c r="M95" s="68"/>
       <c r="N95" s="68"/>
@@ -4264,7 +4347,7 @@
       <c r="H96" s="70"/>
       <c r="I96" s="68"/>
       <c r="J96" s="70"/>
-      <c r="K96" s="75"/>
+      <c r="K96" s="74"/>
       <c r="L96" s="68"/>
       <c r="M96" s="68"/>
       <c r="N96" s="68"/>
@@ -4287,7 +4370,7 @@
       <c r="H97" s="70"/>
       <c r="I97" s="68"/>
       <c r="J97" s="70"/>
-      <c r="K97" s="75"/>
+      <c r="K97" s="74"/>
       <c r="L97" s="68"/>
       <c r="M97" s="68"/>
       <c r="N97" s="68"/>
@@ -4310,7 +4393,7 @@
       <c r="H98" s="70"/>
       <c r="I98" s="68"/>
       <c r="J98" s="70"/>
-      <c r="K98" s="75"/>
+      <c r="K98" s="74"/>
       <c r="L98" s="68"/>
       <c r="M98" s="68"/>
       <c r="N98" s="68"/>
@@ -4333,7 +4416,7 @@
       <c r="H99" s="70"/>
       <c r="I99" s="68"/>
       <c r="J99" s="70"/>
-      <c r="K99" s="75"/>
+      <c r="K99" s="74"/>
       <c r="L99" s="68"/>
       <c r="M99" s="68"/>
       <c r="N99" s="68"/>
@@ -4356,7 +4439,7 @@
       <c r="H100" s="70"/>
       <c r="I100" s="68"/>
       <c r="J100" s="70"/>
-      <c r="K100" s="75"/>
+      <c r="K100" s="74"/>
       <c r="L100" s="68"/>
       <c r="M100" s="68"/>
       <c r="N100" s="68"/>
@@ -4379,7 +4462,7 @@
       <c r="H101" s="70"/>
       <c r="I101" s="68"/>
       <c r="J101" s="70"/>
-      <c r="K101" s="75"/>
+      <c r="K101" s="74"/>
       <c r="L101" s="68"/>
       <c r="M101" s="68"/>
       <c r="N101" s="68"/>
@@ -4402,7 +4485,7 @@
       <c r="H102" s="70"/>
       <c r="I102" s="68"/>
       <c r="J102" s="70"/>
-      <c r="K102" s="75"/>
+      <c r="K102" s="74"/>
       <c r="L102" s="68"/>
       <c r="M102" s="68"/>
       <c r="N102" s="68"/>
@@ -4425,7 +4508,7 @@
       <c r="H103" s="70"/>
       <c r="I103" s="68"/>
       <c r="J103" s="70"/>
-      <c r="K103" s="75"/>
+      <c r="K103" s="74"/>
       <c r="L103" s="68"/>
       <c r="M103" s="68"/>
       <c r="N103" s="68"/>
@@ -4448,7 +4531,7 @@
       <c r="H104" s="70"/>
       <c r="I104" s="68"/>
       <c r="J104" s="70"/>
-      <c r="K104" s="75"/>
+      <c r="K104" s="74"/>
       <c r="L104" s="68"/>
       <c r="M104" s="68"/>
       <c r="N104" s="68"/>
@@ -4471,7 +4554,7 @@
       <c r="H105" s="70"/>
       <c r="I105" s="68"/>
       <c r="J105" s="70"/>
-      <c r="K105" s="75"/>
+      <c r="K105" s="74"/>
       <c r="L105" s="68"/>
       <c r="M105" s="68"/>
       <c r="N105" s="68"/>
@@ -4494,7 +4577,7 @@
       <c r="H106" s="70"/>
       <c r="I106" s="68"/>
       <c r="J106" s="70"/>
-      <c r="K106" s="75"/>
+      <c r="K106" s="74"/>
       <c r="L106" s="68"/>
       <c r="M106" s="68"/>
       <c r="N106" s="68"/>
@@ -4517,7 +4600,7 @@
       <c r="H107" s="70"/>
       <c r="I107" s="68"/>
       <c r="J107" s="70"/>
-      <c r="K107" s="75"/>
+      <c r="K107" s="74"/>
       <c r="L107" s="68"/>
       <c r="M107" s="68"/>
       <c r="N107" s="68"/>
@@ -4540,7 +4623,7 @@
       <c r="H108" s="70"/>
       <c r="I108" s="68"/>
       <c r="J108" s="70"/>
-      <c r="K108" s="75"/>
+      <c r="K108" s="74"/>
       <c r="L108" s="68"/>
       <c r="M108" s="68"/>
       <c r="N108" s="68"/>
@@ -4563,7 +4646,7 @@
       <c r="H109" s="70"/>
       <c r="I109" s="68"/>
       <c r="J109" s="70"/>
-      <c r="K109" s="75"/>
+      <c r="K109" s="74"/>
       <c r="L109" s="68"/>
       <c r="M109" s="68"/>
       <c r="N109" s="68"/>
@@ -4586,7 +4669,7 @@
       <c r="H110" s="70"/>
       <c r="I110" s="68"/>
       <c r="J110" s="70"/>
-      <c r="K110" s="75"/>
+      <c r="K110" s="74"/>
       <c r="L110" s="68"/>
       <c r="M110" s="68"/>
       <c r="N110" s="68"/>
@@ -4609,7 +4692,7 @@
       <c r="H111" s="70"/>
       <c r="I111" s="68"/>
       <c r="J111" s="70"/>
-      <c r="K111" s="75"/>
+      <c r="K111" s="74"/>
       <c r="L111" s="68"/>
       <c r="M111" s="68"/>
       <c r="N111" s="68"/>
@@ -4632,7 +4715,7 @@
       <c r="H112" s="70"/>
       <c r="I112" s="68"/>
       <c r="J112" s="70"/>
-      <c r="K112" s="75"/>
+      <c r="K112" s="74"/>
       <c r="L112" s="68"/>
       <c r="M112" s="68"/>
       <c r="N112" s="68"/>
@@ -4655,7 +4738,7 @@
       <c r="H113" s="70"/>
       <c r="I113" s="68"/>
       <c r="J113" s="70"/>
-      <c r="K113" s="75"/>
+      <c r="K113" s="74"/>
       <c r="L113" s="68"/>
       <c r="M113" s="68"/>
       <c r="N113" s="68"/>
@@ -4678,7 +4761,7 @@
       <c r="H114" s="70"/>
       <c r="I114" s="68"/>
       <c r="J114" s="70"/>
-      <c r="K114" s="75"/>
+      <c r="K114" s="74"/>
       <c r="L114" s="68"/>
       <c r="M114" s="68"/>
       <c r="N114" s="68"/>
@@ -4701,7 +4784,7 @@
       <c r="H115" s="70"/>
       <c r="I115" s="68"/>
       <c r="J115" s="70"/>
-      <c r="K115" s="75"/>
+      <c r="K115" s="74"/>
       <c r="L115" s="68"/>
       <c r="M115" s="68"/>
       <c r="N115" s="68"/>
@@ -4724,7 +4807,7 @@
       <c r="H116" s="70"/>
       <c r="I116" s="68"/>
       <c r="J116" s="70"/>
-      <c r="K116" s="75"/>
+      <c r="K116" s="74"/>
       <c r="L116" s="68"/>
       <c r="M116" s="68"/>
       <c r="N116" s="68"/>
@@ -4747,7 +4830,7 @@
       <c r="H117" s="70"/>
       <c r="I117" s="68"/>
       <c r="J117" s="70"/>
-      <c r="K117" s="75"/>
+      <c r="K117" s="74"/>
       <c r="L117" s="68"/>
       <c r="M117" s="68"/>
       <c r="N117" s="68"/>
@@ -4770,7 +4853,7 @@
       <c r="H118" s="70"/>
       <c r="I118" s="68"/>
       <c r="J118" s="70"/>
-      <c r="K118" s="75"/>
+      <c r="K118" s="74"/>
       <c r="L118" s="68"/>
       <c r="M118" s="68"/>
       <c r="N118" s="68"/>
@@ -4793,7 +4876,7 @@
       <c r="H119" s="70"/>
       <c r="I119" s="68"/>
       <c r="J119" s="70"/>
-      <c r="K119" s="75"/>
+      <c r="K119" s="74"/>
       <c r="L119" s="68"/>
       <c r="M119" s="68"/>
       <c r="N119" s="68"/>
@@ -4816,7 +4899,7 @@
       <c r="H120" s="70"/>
       <c r="I120" s="68"/>
       <c r="J120" s="70"/>
-      <c r="K120" s="75"/>
+      <c r="K120" s="74"/>
       <c r="L120" s="68"/>
       <c r="M120" s="68"/>
       <c r="N120" s="68"/>
@@ -4839,7 +4922,7 @@
       <c r="H121" s="70"/>
       <c r="I121" s="68"/>
       <c r="J121" s="70"/>
-      <c r="K121" s="75"/>
+      <c r="K121" s="74"/>
       <c r="L121" s="68"/>
       <c r="M121" s="68"/>
       <c r="N121" s="68"/>
@@ -4862,7 +4945,7 @@
       <c r="H122" s="70"/>
       <c r="I122" s="68"/>
       <c r="J122" s="70"/>
-      <c r="K122" s="75"/>
+      <c r="K122" s="74"/>
       <c r="L122" s="68"/>
       <c r="M122" s="68"/>
       <c r="N122" s="68"/>
@@ -4885,7 +4968,7 @@
       <c r="H123" s="70"/>
       <c r="I123" s="68"/>
       <c r="J123" s="70"/>
-      <c r="K123" s="75"/>
+      <c r="K123" s="74"/>
       <c r="L123" s="68"/>
       <c r="M123" s="68"/>
       <c r="N123" s="68"/>
@@ -4908,7 +4991,7 @@
       <c r="H124" s="70"/>
       <c r="I124" s="68"/>
       <c r="J124" s="70"/>
-      <c r="K124" s="75"/>
+      <c r="K124" s="74"/>
       <c r="L124" s="68"/>
       <c r="M124" s="68"/>
       <c r="N124" s="68"/>
@@ -4931,7 +5014,7 @@
       <c r="H125" s="70"/>
       <c r="I125" s="68"/>
       <c r="J125" s="70"/>
-      <c r="K125" s="75"/>
+      <c r="K125" s="74"/>
       <c r="L125" s="68"/>
       <c r="M125" s="68"/>
       <c r="N125" s="68"/>
@@ -4954,7 +5037,7 @@
       <c r="H126" s="70"/>
       <c r="I126" s="68"/>
       <c r="J126" s="70"/>
-      <c r="K126" s="75"/>
+      <c r="K126" s="74"/>
       <c r="L126" s="68"/>
       <c r="M126" s="68"/>
       <c r="N126" s="68"/>
@@ -4977,7 +5060,7 @@
       <c r="H127" s="70"/>
       <c r="I127" s="68"/>
       <c r="J127" s="70"/>
-      <c r="K127" s="75"/>
+      <c r="K127" s="74"/>
       <c r="L127" s="68"/>
       <c r="M127" s="68"/>
       <c r="N127" s="68"/>
@@ -5000,7 +5083,7 @@
       <c r="H128" s="70"/>
       <c r="I128" s="68"/>
       <c r="J128" s="70"/>
-      <c r="K128" s="75"/>
+      <c r="K128" s="74"/>
       <c r="L128" s="68"/>
       <c r="M128" s="68"/>
       <c r="N128" s="68"/>
@@ -5023,7 +5106,7 @@
       <c r="H129" s="70"/>
       <c r="I129" s="68"/>
       <c r="J129" s="70"/>
-      <c r="K129" s="75"/>
+      <c r="K129" s="74"/>
       <c r="L129" s="68"/>
       <c r="M129" s="68"/>
       <c r="N129" s="68"/>
@@ -5046,7 +5129,7 @@
       <c r="H130" s="70"/>
       <c r="I130" s="68"/>
       <c r="J130" s="70"/>
-      <c r="K130" s="75"/>
+      <c r="K130" s="74"/>
       <c r="L130" s="68"/>
       <c r="M130" s="68"/>
       <c r="N130" s="68"/>
@@ -5069,7 +5152,7 @@
       <c r="H131" s="70"/>
       <c r="I131" s="68"/>
       <c r="J131" s="70"/>
-      <c r="K131" s="75"/>
+      <c r="K131" s="74"/>
       <c r="L131" s="68"/>
       <c r="M131" s="68"/>
       <c r="N131" s="68"/>
@@ -5089,7 +5172,7 @@
       <c r="H132" s="70"/>
       <c r="I132" s="68"/>
       <c r="J132" s="70"/>
-      <c r="K132" s="75"/>
+      <c r="K132" s="74"/>
       <c r="L132" s="68"/>
       <c r="M132" s="68"/>
       <c r="N132" s="68"/>
@@ -5109,7 +5192,7 @@
       <c r="H133" s="70"/>
       <c r="I133" s="68"/>
       <c r="J133" s="70"/>
-      <c r="K133" s="75"/>
+      <c r="K133" s="74"/>
       <c r="L133" s="68"/>
       <c r="M133" s="68"/>
       <c r="N133" s="68"/>
@@ -5129,7 +5212,7 @@
       <c r="H134" s="70"/>
       <c r="I134" s="68"/>
       <c r="J134" s="70"/>
-      <c r="K134" s="75"/>
+      <c r="K134" s="74"/>
       <c r="L134" s="68"/>
       <c r="M134" s="68"/>
       <c r="N134" s="68"/>
@@ -5149,7 +5232,7 @@
       <c r="H135" s="70"/>
       <c r="I135" s="68"/>
       <c r="J135" s="70"/>
-      <c r="K135" s="75"/>
+      <c r="K135" s="74"/>
       <c r="L135" s="68"/>
       <c r="M135" s="68"/>
       <c r="N135" s="68"/>
@@ -5169,7 +5252,7 @@
       <c r="H136" s="70"/>
       <c r="I136" s="68"/>
       <c r="J136" s="70"/>
-      <c r="K136" s="75"/>
+      <c r="K136" s="74"/>
       <c r="L136" s="68"/>
       <c r="M136" s="68"/>
       <c r="N136" s="68"/>
@@ -5189,7 +5272,7 @@
       <c r="H137" s="70"/>
       <c r="I137" s="68"/>
       <c r="J137" s="70"/>
-      <c r="K137" s="75"/>
+      <c r="K137" s="74"/>
       <c r="L137" s="68"/>
       <c r="M137" s="68"/>
       <c r="N137" s="68"/>
@@ -5209,7 +5292,7 @@
       <c r="H138" s="70"/>
       <c r="I138" s="68"/>
       <c r="J138" s="70"/>
-      <c r="K138" s="75"/>
+      <c r="K138" s="74"/>
       <c r="L138" s="68"/>
       <c r="M138" s="68"/>
       <c r="N138" s="68"/>
@@ -5229,7 +5312,7 @@
       <c r="H139" s="70"/>
       <c r="I139" s="68"/>
       <c r="J139" s="70"/>
-      <c r="K139" s="75"/>
+      <c r="K139" s="74"/>
       <c r="L139" s="68"/>
       <c r="M139" s="68"/>
       <c r="N139" s="68"/>
@@ -5249,7 +5332,7 @@
       <c r="H140" s="70"/>
       <c r="I140" s="68"/>
       <c r="J140" s="70"/>
-      <c r="K140" s="75"/>
+      <c r="K140" s="74"/>
       <c r="L140" s="68"/>
       <c r="M140" s="68"/>
       <c r="N140" s="68"/>
@@ -5269,7 +5352,7 @@
       <c r="H141" s="70"/>
       <c r="I141" s="68"/>
       <c r="J141" s="70"/>
-      <c r="K141" s="75"/>
+      <c r="K141" s="74"/>
       <c r="L141" s="68"/>
       <c r="M141" s="68"/>
       <c r="N141" s="68"/>
@@ -5289,7 +5372,7 @@
       <c r="H142" s="70"/>
       <c r="I142" s="68"/>
       <c r="J142" s="70"/>
-      <c r="K142" s="75"/>
+      <c r="K142" s="74"/>
       <c r="L142" s="68"/>
       <c r="M142" s="68"/>
       <c r="N142" s="68"/>
@@ -5309,7 +5392,7 @@
       <c r="H143" s="70"/>
       <c r="I143" s="68"/>
       <c r="J143" s="70"/>
-      <c r="K143" s="75"/>
+      <c r="K143" s="74"/>
       <c r="L143" s="68"/>
       <c r="M143" s="68"/>
       <c r="N143" s="68"/>
@@ -5329,7 +5412,7 @@
       <c r="H144" s="70"/>
       <c r="I144" s="68"/>
       <c r="J144" s="70"/>
-      <c r="K144" s="75"/>
+      <c r="K144" s="74"/>
       <c r="L144" s="68"/>
       <c r="M144" s="68"/>
       <c r="N144" s="68"/>
@@ -5349,7 +5432,7 @@
       <c r="H145" s="70"/>
       <c r="I145" s="68"/>
       <c r="J145" s="70"/>
-      <c r="K145" s="75"/>
+      <c r="K145" s="74"/>
       <c r="L145" s="68"/>
       <c r="M145" s="68"/>
       <c r="N145" s="68"/>
@@ -5369,7 +5452,7 @@
       <c r="H146" s="70"/>
       <c r="I146" s="68"/>
       <c r="J146" s="70"/>
-      <c r="K146" s="75"/>
+      <c r="K146" s="74"/>
       <c r="L146" s="68"/>
       <c r="M146" s="68"/>
       <c r="N146" s="68"/>
@@ -5389,7 +5472,7 @@
       <c r="H147" s="70"/>
       <c r="I147" s="68"/>
       <c r="J147" s="70"/>
-      <c r="K147" s="75"/>
+      <c r="K147" s="74"/>
       <c r="L147" s="68"/>
       <c r="M147" s="68"/>
       <c r="N147" s="68"/>
@@ -5409,7 +5492,7 @@
       <c r="H148" s="70"/>
       <c r="I148" s="68"/>
       <c r="J148" s="70"/>
-      <c r="K148" s="75"/>
+      <c r="K148" s="74"/>
       <c r="L148" s="68"/>
       <c r="M148" s="68"/>
       <c r="N148" s="68"/>
@@ -5429,7 +5512,7 @@
       <c r="H149" s="70"/>
       <c r="I149" s="68"/>
       <c r="J149" s="70"/>
-      <c r="K149" s="75"/>
+      <c r="K149" s="74"/>
       <c r="L149" s="68"/>
       <c r="M149" s="68"/>
       <c r="N149" s="68"/>
@@ -5449,7 +5532,7 @@
       <c r="H150" s="70"/>
       <c r="I150" s="68"/>
       <c r="J150" s="70"/>
-      <c r="K150" s="75"/>
+      <c r="K150" s="74"/>
       <c r="L150" s="68"/>
       <c r="M150" s="68"/>
       <c r="N150" s="68"/>
@@ -5469,7 +5552,7 @@
       <c r="H151" s="70"/>
       <c r="I151" s="68"/>
       <c r="J151" s="70"/>
-      <c r="K151" s="75"/>
+      <c r="K151" s="74"/>
       <c r="L151" s="68"/>
       <c r="M151" s="68"/>
       <c r="N151" s="68"/>
@@ -5489,7 +5572,7 @@
       <c r="H152" s="70"/>
       <c r="I152" s="68"/>
       <c r="J152" s="70"/>
-      <c r="K152" s="75"/>
+      <c r="K152" s="74"/>
       <c r="L152" s="68"/>
       <c r="M152" s="68"/>
       <c r="N152" s="68"/>
@@ -5509,7 +5592,7 @@
       <c r="H153" s="70"/>
       <c r="I153" s="68"/>
       <c r="J153" s="70"/>
-      <c r="K153" s="75"/>
+      <c r="K153" s="74"/>
       <c r="L153" s="68"/>
       <c r="M153" s="68"/>
       <c r="N153" s="68"/>
@@ -5529,7 +5612,7 @@
       <c r="H154" s="70"/>
       <c r="I154" s="68"/>
       <c r="J154" s="70"/>
-      <c r="K154" s="75"/>
+      <c r="K154" s="74"/>
       <c r="L154" s="68"/>
       <c r="M154" s="68"/>
       <c r="N154" s="68"/>
@@ -5549,7 +5632,7 @@
       <c r="H155" s="70"/>
       <c r="I155" s="68"/>
       <c r="J155" s="70"/>
-      <c r="K155" s="75"/>
+      <c r="K155" s="74"/>
       <c r="L155" s="68"/>
       <c r="M155" s="68"/>
       <c r="N155" s="68"/>
@@ -5569,7 +5652,7 @@
       <c r="H156" s="70"/>
       <c r="I156" s="68"/>
       <c r="J156" s="70"/>
-      <c r="K156" s="75"/>
+      <c r="K156" s="74"/>
       <c r="L156" s="68"/>
       <c r="M156" s="68"/>
       <c r="N156" s="68"/>
@@ -5589,7 +5672,7 @@
       <c r="H157" s="70"/>
       <c r="I157" s="68"/>
       <c r="J157" s="70"/>
-      <c r="K157" s="75"/>
+      <c r="K157" s="74"/>
       <c r="L157" s="68"/>
       <c r="M157" s="68"/>
       <c r="N157" s="68"/>
@@ -5609,7 +5692,7 @@
       <c r="H158" s="70"/>
       <c r="I158" s="68"/>
       <c r="J158" s="70"/>
-      <c r="K158" s="75"/>
+      <c r="K158" s="74"/>
       <c r="L158" s="68"/>
       <c r="M158" s="68"/>
       <c r="N158" s="68"/>
@@ -5629,7 +5712,7 @@
       <c r="H159" s="70"/>
       <c r="I159" s="68"/>
       <c r="J159" s="70"/>
-      <c r="K159" s="75"/>
+      <c r="K159" s="74"/>
       <c r="L159" s="68"/>
       <c r="M159" s="68"/>
       <c r="N159" s="68"/>
@@ -5649,7 +5732,7 @@
       <c r="H160" s="70"/>
       <c r="I160" s="68"/>
       <c r="J160" s="70"/>
-      <c r="K160" s="75"/>
+      <c r="K160" s="74"/>
       <c r="L160" s="68"/>
       <c r="M160" s="68"/>
       <c r="N160" s="68"/>
@@ -5669,7 +5752,7 @@
       <c r="H161" s="70"/>
       <c r="I161" s="68"/>
       <c r="J161" s="70"/>
-      <c r="K161" s="75"/>
+      <c r="K161" s="74"/>
       <c r="L161" s="68"/>
       <c r="M161" s="68"/>
       <c r="N161" s="68"/>
@@ -5689,7 +5772,7 @@
       <c r="H162" s="70"/>
       <c r="I162" s="68"/>
       <c r="J162" s="70"/>
-      <c r="K162" s="75"/>
+      <c r="K162" s="74"/>
       <c r="L162" s="68"/>
       <c r="M162" s="68"/>
       <c r="N162" s="68"/>
@@ -5709,7 +5792,7 @@
       <c r="H163" s="70"/>
       <c r="I163" s="68"/>
       <c r="J163" s="70"/>
-      <c r="K163" s="75"/>
+      <c r="K163" s="74"/>
       <c r="L163" s="68"/>
       <c r="M163" s="68"/>
       <c r="N163" s="68"/>
@@ -5729,7 +5812,7 @@
       <c r="H164" s="70"/>
       <c r="I164" s="68"/>
       <c r="J164" s="70"/>
-      <c r="K164" s="75"/>
+      <c r="K164" s="74"/>
       <c r="L164" s="68"/>
       <c r="M164" s="68"/>
       <c r="N164" s="68"/>
@@ -5749,7 +5832,7 @@
       <c r="H165" s="70"/>
       <c r="I165" s="68"/>
       <c r="J165" s="70"/>
-      <c r="K165" s="75"/>
+      <c r="K165" s="74"/>
       <c r="L165" s="68"/>
       <c r="M165" s="68"/>
       <c r="N165" s="68"/>
@@ -5760,26 +5843,26 @@
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C2 C3:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3 O4 O5 O6 O1:O2 O7:O1048576">
+      <formula1>"通过,不通过"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B4 B5 B6 B1:B2 B7:B1048576">
+      <formula1>"重要,不重要"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3 M4 M5 M6 M1:M2 M7:M1048576">
+      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3 I3 T3 G4 I4 T4 G5 I5 T5 G6 I6 T6 G1:G2 G7:G1048576 I1:I2 I7:I1048576 T1:T2 T7:T1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E1:E2 E7:E1048576">
+      <formula1>"Fix Bugs,New Features"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C4 C5 C6 C1:C2 C7:C1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 G1:G2 G3:G1048576 I1:I2 I4:I1048576 T1:T2 T3:T1048576">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E2 E3:E1048576">
-      <formula1>"Fix Bugs,New Features"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B2 B3:B1048576">
-      <formula1>"重要,不重要"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q1:Q2 Q3:Q1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3 Q4 Q5 Q6 Q1:Q2 Q7:Q1048576">
       <formula1>"能,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M2 M3:M1048576">
-      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O2 O3:O1048576">
-      <formula1>"通过,不通过"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5819,55 +5902,55 @@
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:18">
       <c r="A1" s="39" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G1" s="40" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H1" s="40" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I1" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="40" t="s">
-        <v>35</v>
-      </c>
       <c r="O1" s="40" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="P1" s="40" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Q1" s="40" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="R1" s="40" t="s">
         <v>20</v>
@@ -5945,7 +6028,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5963,7 +6046,7 @@
   <sheetData>
     <row r="1" ht="20.25" spans="1:11">
       <c r="A1" s="22" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -5978,34 +6061,34 @@
     </row>
     <row r="2" ht="17.25" spans="1:11">
       <c r="A2" s="24" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K2" s="25" t="s">
         <v>20</v>
@@ -6016,15 +6099,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="28" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E3" s="28"/>
       <c r="F3" s="29" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G3" s="29"/>
       <c r="H3" s="30"/>
@@ -6037,11 +6120,11 @@
       <c r="B4" s="32"/>
       <c r="C4" s="27"/>
       <c r="D4" s="28" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="29" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G4" s="29"/>
       <c r="H4" s="30"/>
@@ -6054,15 +6137,15 @@
         <v>2</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C5" s="27"/>
       <c r="D5" s="28" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="29" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G5" s="29"/>
       <c r="H5" s="30"/>
@@ -6075,11 +6158,11 @@
       <c r="B6" s="32"/>
       <c r="C6" s="27"/>
       <c r="D6" s="28" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="29" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G6" s="29"/>
       <c r="H6" s="30"/>
@@ -6092,11 +6175,11 @@
       <c r="B7" s="32"/>
       <c r="C7" s="27"/>
       <c r="D7" s="28" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="29" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="30"/>
@@ -6109,11 +6192,11 @@
       <c r="B8" s="32"/>
       <c r="C8" s="27"/>
       <c r="D8" s="28" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="29" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="30"/>
@@ -6201,7 +6284,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -6233,40 +6316,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>20</v>
@@ -6280,23 +6363,23 @@
         <v>27</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -6494,11 +6577,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6532,7 +6615,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -6564,40 +6647,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>20</v>
@@ -6806,14 +6889,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
       <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6847,7 +6930,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -6879,40 +6962,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>20</v>
@@ -7121,14 +7204,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
       <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7162,7 +7245,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -7194,40 +7277,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>20</v>
@@ -7436,14 +7519,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
       <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7473,28 +7556,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:8">
